--- a/medicine/Pharmacie/Capmatinib/Capmatinib.xlsx
+++ b/medicine/Pharmacie/Capmatinib/Capmatinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le capmatinib, est un médicament de type inhibiteur de tyrosine kinase et utilisé dans le traitement de certains cancers. Il est vendu sous la marque Tabrecta[1].
+Le capmatinib, est un médicament de type inhibiteur de tyrosine kinase et utilisé dans le traitement de certains cancers. Il est vendu sous la marque Tabrecta.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de la tyrosine kinase[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de la tyrosine kinase.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter le cancer du poumon non à petites cellules[1]. Plus précisément, il est utilisé pour les maladies métastatiques avec saut de l'exon 14[1]. On le retrouve chez 3 à 4 % des personnes atteintes d’un cancer du poumon. Il est pris par voie orale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter le cancer du poumon non à petites cellules. Plus précisément, il est utilisé pour les maladies métastatiques avec saut de l'exon 14. On le retrouve chez 3 à 4 % des personnes atteintes d’un cancer du poumon. Il est pris par voie orale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent un gonflement périphérique, des nausées, de la fatigue, un essoufflement et une diminution de l'appétit; d'autres effets secondaires peuvent inclure une pneumopathie, des problèmes de foie et des coups de soleil[1]. L'utilisation pendant la grossesse peut nuire au fœtus[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent un gonflement périphérique, des nausées, de la fatigue, un essoufflement et une diminution de l'appétit; d'autres effets secondaires peuvent inclure une pneumopathie, des problèmes de foie et des coups de soleil. L'utilisation pendant la grossesse peut nuire au fœtus.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le capmatinib a été approuvé pour un usage médical aux États-Unis en 2020[2]. Il n'est pas approuvé en Europe ou au Royaume-Uni en 2021[3]. Aux États-Unis, 4 semaines coûtent environ 19 800 dollars américain à partir de 2021[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le capmatinib a été approuvé pour un usage médical aux États-Unis en 2020. Il n'est pas approuvé en Europe ou au Royaume-Uni en 2021. Aux États-Unis, 4 semaines coûtent environ 19 800 dollars américain à partir de 2021.
 </t>
         </is>
       </c>
